--- a/v2GeneradorDiplomas/alumnos_diplomas_ejemplo.xlsx
+++ b/v2GeneradorDiplomas/alumnos_diplomas_ejemplo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universidaddeburgos-my.sharepoint.com/personal/fdemiguel_ubu_es/Documents/Documentos/Diplomas/v2GeneradorDiplomas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_085D0FDFD55C7E7F661830F443DFDEFB82A18B6E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7D5BC11-AD55-4FF4-8922-4FEBB5F7D85B}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_085D0FDFD55C7E7F661830F443DFDEFB82A18B6E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74AD05FE-7516-4E94-99D3-8A8A7E6E8C69}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>alumno_id</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>alejandroml@ubu.es</t>
+  </si>
+  <si>
+    <t>id_plantilla</t>
+  </si>
+  <si>
+    <t>biblioteca_basico</t>
+  </si>
+  <si>
+    <t>biblioteca_avanzado</t>
   </si>
 </sst>
 </file>
@@ -498,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,15 +522,16 @@
     <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,25 +554,28 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -584,23 +597,26 @@
       <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2">
         <v>46037</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>10</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -622,13 +638,16 @@
       <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2">
         <v>46042</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>18</v>
       </c>
     </row>
